--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120852.7288742638</v>
+        <v>80563.54092267941</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462305</v>
+        <v>8358767.937462306</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>32.64956439617032</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>266.5504398165651</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.3224055697218</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>59.98965011482463</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>41.75100837039705</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>13.81561135834933</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>225.4603876057576</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>43.34833826371142</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>145.4249611444373</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923383</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.9468465755252</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>307.034090248956</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>90.03590933848086</v>
       </c>
     </row>
     <row r="18">
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.5106614771179</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>46.58646588932399</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>86.11456485616236</v>
       </c>
       <c r="T22" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>123.0607915108177</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>287.1645425207005</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>163.3262690154808</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,31 +2947,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.1416784925591</v>
       </c>
       <c r="I31" t="n">
-        <v>11.31462210444188</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>43.82642114172589</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>52.10844059186255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>19.56003630807874</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>89.06613335611762</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.77840076253149</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>111.0497046617688</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>176.7166301627351</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>373.1964540713599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>609.3508327416162</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C2" t="n">
-        <v>240.3883158012044</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312744</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.09000478155</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.9506728057379</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4404,40 +4404,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4480,58 +4480,58 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.1377017843616</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="C5" t="n">
-        <v>381.1377017843616</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>381.1377017843616</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224644</v>
+        <v>2168.202948062278</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,7 +4665,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785274</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785274</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>559.1928012785274</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>559.1928012785274</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>390.1930010168599</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>232.44462844939</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>96.11571754803825</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>395.0928647725933</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>395.0928647725933</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>395.0928647725933</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>67.8981448085961</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,28 +4884,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.381229508782</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C11" t="n">
-        <v>1496.41871256837</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D11" t="n">
-        <v>1496.41871256837</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E11" t="n">
-        <v>1110.630459970126</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="F11" t="n">
-        <v>699.6445551805186</v>
+        <v>424.9239020507368</v>
       </c>
       <c r="G11" t="n">
-        <v>281.6807470787055</v>
+        <v>424.9239020507368</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.72918208673963</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5051,7 +5051,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>2251.981069572904</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5109,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J12" t="n">
         <v>53.94298182036445</v>
@@ -5136,7 +5136,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600561</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>551.8221175621458</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>382.8223173004782</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
         <v>235.9284171545819</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.090004781549</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>1017.127487841138</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>658.8617892343871</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.090004781549</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y14" t="n">
-        <v>1386.090004781549</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5461,13 +5461,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V16" t="n">
         <v>53.94298182036445</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1160.852583904132</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C17" t="n">
-        <v>1160.852583904132</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>1160.852583904132</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0643313058872</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0784265162796</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224073</v>
@@ -5549,16 +5549,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>1937.591755944065</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.452423968253</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5610,25 +5610,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5692,19 +5692,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>336.2769833124028</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T19" t="n">
-        <v>336.2769833124028</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
         <v>53.94298182036445</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X20" t="n">
-        <v>2354.684526795312</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5929,31 +5929,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="T22" t="n">
-        <v>600.9853550586245</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="U22" t="n">
-        <v>600.9853550586245</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V22" t="n">
-        <v>600.9853550586245</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W22" t="n">
-        <v>600.9853550586245</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X22" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>372.9958041606071</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5990,16 +5990,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2045.420119349963</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2045.420119349963</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6066,16 +6066,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2636.818952052699</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C25" t="n">
-        <v>2467.882769124792</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D25" t="n">
-        <v>2317.766129712456</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E25" t="n">
-        <v>2169.853036130063</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>761.9719843875316</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>761.9719843875316</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>761.9719843875316</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>761.9719843875316</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>344.0081762857185</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2532.173061709656</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2313.538394681719</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2313.538394681719</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2249.048324543294</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C31" t="n">
-        <v>2249.048324543294</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D31" t="n">
-        <v>2249.048324543294</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E31" t="n">
-        <v>2249.048324543294</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F31" t="n">
-        <v>2249.048324543294</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G31" t="n">
-        <v>2080.048524281627</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="H31" t="n">
-        <v>2080.048524281627</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>2249.048324543294</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247702</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>1595.582677879089</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6789,13 +6789,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="C34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="D34" t="n">
-        <v>675.4941957298054</v>
+        <v>2369.468873893693</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5811021474123</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694736</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C37" t="n">
-        <v>438.7118141694736</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.69838933464703</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>2317.766129712457</v>
       </c>
       <c r="Y40" t="n">
-        <v>279.3468541648867</v>
+        <v>2317.766129712457</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.886095354873</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.746763379062</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>2349.71126146129</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2518.647444389197</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2518.647444389197</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>2518.647444389197</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V43" t="n">
-        <v>2518.647444389197</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>2518.647444389197</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>799.8716139843721</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>430.9090970439603</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>430.9090970439603</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7649,49 +7649,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1190.010945960184</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>799.8716139843721</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>322.0334772245126</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>115.3799302556967</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.4114360937588</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>305.2832416561829</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,16 +22942,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.448950818139956</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23021,13 +23021,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,10 +23036,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>138.1157048865119</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46238515859952</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>108.5829779811498</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>10.74592769735784</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>106.9835234967366</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.22198880999349</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,16 +23701,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>106.750079771839</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
     </row>
     <row r="18">
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>6.771212764859854</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>204.6377016189653</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>126.0309740938565</v>
       </c>
       <c r="T22" t="n">
-        <v>99.16291260175264</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>294.993770356748</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,25 +24251,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>204.6914669593172</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24406,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>36.75823024365667</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24655,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>11.08944379349072</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>109.0292103492361</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6509996878964</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,16 +24880,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24917,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,16 +24974,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>342.4115175143277</v>
       </c>
     </row>
     <row r="33">
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>126.8739263384904</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,10 +25093,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.54933966209474</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25567,10 +25567,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,13 +25591,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>235.3592425612965</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,13 +25685,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>238.1912640556442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25828,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>35.42890878728383</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>8.733916000901843</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,28 +26065,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393944</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393944</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="E2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157575</v>
-      </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26442,19 +26442,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,25 +26491,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26525,28 +26525,28 @@
         <v>205780.4234532884</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532882</v>
+        <v>205780.4234532883</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="F6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="G6" t="n">
         <v>239408.0234532884</v>
       </c>
-      <c r="G6" t="n">
-        <v>239408.0234532883</v>
-      </c>
       <c r="H6" t="n">
+        <v>239408.0234532882</v>
+      </c>
+      <c r="I6" t="n">
         <v>239408.0234532884</v>
-      </c>
-      <c r="I6" t="n">
-        <v>239408.0234532882</v>
       </c>
       <c r="J6" t="n">
         <v>62984.80426069529</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532882</v>
       </c>
       <c r="L6" t="n">
         <v>239408.0234532884</v>
@@ -26558,10 +26558,10 @@
         <v>239408.0234532884</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532886</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532882</v>
+        <v>239408.0234532884</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26756,28 +26756,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31838,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,7 +31856,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
@@ -32017,7 +32017,7 @@
         <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
         <v>95.39071536633796</v>
@@ -32075,10 +32075,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32233,7 +32233,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32476,7 +32476,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405367</v>
@@ -32567,7 +32567,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32880,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,22 +33117,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,22 +33251,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33354,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33509,28 +33509,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,22 +33591,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,22 +33828,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33986,25 +33986,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,22 +34065,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,22 +34302,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,22 +34539,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35978,10 +35978,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36215,7 +36215,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,16 +36683,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36914,19 +36914,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238791.943495761</v>
+        <v>1267636.254250488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80563.54092267941</v>
+        <v>117397.2506240577</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462306</v>
+        <v>8358767.937462305</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>266.5504398165651</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.64956439617006</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>59.98965011482463</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>135.7761742049799</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.81561135834933</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1347,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>43.34833826371142</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.09154775245525</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>84.45262105857515</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1551,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>339.5091118684755</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>48.91401559658163</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.03590933848086</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>86.13065206326425</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>46.58646588932399</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>86.11456485616236</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>122.3623168480191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
-        <v>28.92900240760912</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>9.27559683049698</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>17.49690079789893</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>287.1645425207005</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2609,19 +2611,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>354.669489730795</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>163.3262690154808</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.1416784925591</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.9769967570045</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.82642114172589</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>19.56003630807874</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>275.4805812731082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V40" t="n">
-        <v>16.77840076253149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>241.9672255833421</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364057</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>275.4805812731082</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>155.2114886365811</v>
+        <v>155.211488636581</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2001.758776122685</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.796259182274</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.796259182274</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2410.407947680385</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2079.345060336814</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1726.5764050667</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1353.11064680562</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>962.9713148298083</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,19 +4427,19 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E4" t="n">
         <v>709.5665374816297</v>
@@ -4480,58 +4482,58 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2168.202948062278</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>518.2853524964626</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>191.0906325324654</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.202948062278</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1139.146815977588</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>780.8811173708375</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>395.0928647725933</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0928647725933</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>395.0928647725933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>67.8981448085961</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4814,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4863,10 +4865,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
@@ -4875,28 +4877,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C11" t="n">
-        <v>1194.175505447095</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D11" t="n">
-        <v>835.9098068403443</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E11" t="n">
-        <v>835.9098068403443</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>424.9239020507368</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>424.9239020507368</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>97.72918208673963</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,13 +5047,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5072,19 +5074,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2671.80409328847</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2340.741205944899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>2340.741205944899</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5182,19 +5184,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.420119349963</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1655.280787374151</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5358,13 +5360,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5376,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>103.3510783825681</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1791.109440255352</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2177.709280319473</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5698,16 +5700,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1268.680947310029</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.680947310029</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.680947310029</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>879.1242652237311</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>468.1383604341235</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2418.885877611043</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2418.885877611043</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>2418.885877611043</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X20" t="n">
-        <v>2045.420119349963</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y20" t="n">
-        <v>1655.280787374151</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5929,28 +5931,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>463.5809975486215</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>463.5809975486215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U22" t="n">
-        <v>463.5809975486215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V22" t="n">
-        <v>463.5809975486215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W22" t="n">
-        <v>463.5809975486215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
         <v>235.5914466506042</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035243</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>494.1501011631125</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>494.1501011631125</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>494.1501011631125</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>83.16419637350498</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>83.16419637350498</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6023,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6066,19 +6068,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H25" t="n">
-        <v>108.9687959810048</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6151,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>336.2769833124031</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.9687959810048</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1130.934501327943</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="C26" t="n">
-        <v>761.9719843875316</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D26" t="n">
-        <v>761.9719843875316</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E26" t="n">
-        <v>761.9719843875316</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>761.9719843875316</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>344.0081762857185</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,10 +6244,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6254,22 +6256,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2247.308246834949</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1894.539591564835</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1521.073833303755</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="Y26" t="n">
-        <v>1130.934501327943</v>
+        <v>951.4629090302697</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>125.4609311463251</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.875667274027</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.875667274027</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2532.173061709656</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2313.538394681719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2313.538394681719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1982.475507338148</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1982.475507338148</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1982.475507338148</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1982.475507338148</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761947</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D31" t="n">
-        <v>396.3638799638589</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E31" t="n">
-        <v>248.4507863814658</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F31" t="n">
-        <v>101.5608388835555</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5608388835555</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>103.4146957163286</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1208.982837814967</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1595.582677879089</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="C34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="D34" t="n">
-        <v>2369.468873893693</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="E34" t="n">
-        <v>2349.711261461291</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="F34" t="n">
-        <v>2349.711261461291</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="G34" t="n">
-        <v>2180.711461199623</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6864,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="S34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="T34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="U34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="V34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="W34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="X34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
       <c r="Y34" t="n">
-        <v>2519.585513306029</v>
+        <v>2636.156811774978</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761947</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482878</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D37" t="n">
-        <v>227.4276970359521</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E37" t="n">
-        <v>79.51460345355898</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7272,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2169.853036130064</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.714009270569</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.714009270569</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U40" t="n">
-        <v>2334.714009270569</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2317.766129712457</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
         <v>1268.68094731003</v>
@@ -7643,7 +7645,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7810,34 +7812,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
         <v>571.3497027553424</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>115.3799302556967</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>141.7661484128015</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22604,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22784,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>305.2832416561829</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>16.15514203988133</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>138.1157048865119</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>108.5829779811498</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>226.132619755834</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>82.85718120047576</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,7 +23551,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>30.22198880999349</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>86.05160619575659</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>327.6535179575308</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>204.6377016189653</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>126.0309740938565</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>102.6727886100651</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
-        <v>294.993770356748</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,10 +24265,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>125.6900249618412</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.5382046601853</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24443,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>36.75823024365667</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>15.06161094767407</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24604,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>64.16285195963719</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>11.08944379349072</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,19 +24849,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>109.0292103492361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>85.98862503533373</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24974,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.4115175143277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>126.8739263384904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.19995918853699</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.28283552934542</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25555,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V40" t="n">
-        <v>235.3592425612965</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
     </row>
     <row r="42">
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744437</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>89.79231049789934</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26080,7 +26082,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>96.92615468724688</v>
+        <v>96.92615468724699</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722881.5250393944</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393944</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="G2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
@@ -26338,22 +26340,22 @@
         <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="O2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="L2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
       <c r="P2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26442,19 +26444,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,22 +26493,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26522,46 +26524,46 @@
         <v>-384187.4557612562</v>
       </c>
       <c r="C6" t="n">
+        <v>205780.4234532882</v>
+      </c>
+      <c r="D6" t="n">
         <v>205780.4234532884</v>
-      </c>
-      <c r="D6" t="n">
-        <v>205780.4234532883</v>
       </c>
       <c r="E6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532882</v>
+        <v>239408.0234532885</v>
       </c>
       <c r="G6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="H6" t="n">
-        <v>239408.0234532882</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="I6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069529</v>
+        <v>62984.80426069524</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532882</v>
+        <v>239408.0234532884</v>
       </c>
       <c r="L6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532885</v>
       </c>
       <c r="M6" t="n">
         <v>239408.0234532884</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532885</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532884</v>
+        <v>239408.0234532883</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26756,28 +26758,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26805,28 +26807,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,7 +31840,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31847,7 +31849,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31856,7 +31858,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>87.78329382423996</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33497,7 +33499,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33509,16 +33511,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034983</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33986,25 +33988,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>73.87984549392718</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,7 +35497,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35504,7 +35506,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262123</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1267636.254250488</v>
+        <v>1216316.592906121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117397.2506240577</v>
+        <v>4999.035981161856</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8358767.937462305</v>
+        <v>8358767.937462307</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0354783084794</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.64956439617006</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553082</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>89.06613335611806</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>135.7761742049799</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>74.62372476861262</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>7.619232405193561</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>151.9211330402481</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.09154775245525</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>84.45262105857515</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>219.5513188906176</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.91401559658163</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>95.04536685828211</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>86.13065206326425</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.02557349504016</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>122.3623168480191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>195.7571515107716</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>232.5207772789754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>17.49690079789893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>130.6713224100506</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>354.669489730795</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>89.06613335611794</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>100.4687445799967</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>94.63926978364064</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9769967570045</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>22.02087812852642</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.38235645081242</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>229.5889480231534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>323.9918595228962</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>78.32618729827882</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480844</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>94.63926978364076</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>190.2713935802968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982969</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.9672255833421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2713935802968</v>
+        <v>203.1609600883626</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>126.9368849988964</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>155.211488636581</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576.3714747656866</v>
+        <v>1937.083492693022</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,7 +4345,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2664.169733042294</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2664.169733042294</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.407947680385</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2079.345060336814</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1726.5764050667</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.11064680562</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.9713148298083</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4442,16 +4442,16 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237152</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694741</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>936.2491605982757</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>518.2853524964626</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>191.0906325324654</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>570.6683391887234</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,16 +4889,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1954.141365880777</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5074,19 +5074,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2671.80409328847</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V11" t="n">
-        <v>2340.741205944899</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>2340.741205944899</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>2340.741205944899</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y11" t="n">
-        <v>2340.741205944899</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5129,10 +5129,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5360,13 +5360,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>261.099450950038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3510783825681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5518,7 +5518,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5545,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="18">
@@ -5706,7 +5706,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
         <v>343.360151857325</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1623.178216428726</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>1623.178216428726</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.912517821975</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>879.1242652237311</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>468.1383604341235</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5770,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404538</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X20" t="n">
-        <v>2013.317548404538</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y20" t="n">
-        <v>1623.178216428726</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>456.3840257941342</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X22" t="n">
-        <v>456.3840257941342</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6004,37 +6004,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="24">
@@ -6059,28 +6059,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S25" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T25" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U25" t="n">
-        <v>348.0202652891861</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V25" t="n">
-        <v>348.0202652891861</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>951.4629090302697</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C26" t="n">
-        <v>951.4629090302697</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D26" t="n">
-        <v>593.1972104235191</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2346.523189232659</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2015.460301889088</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2015.460301889088</v>
       </c>
       <c r="X26" t="n">
-        <v>951.4629090302697</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y26" t="n">
-        <v>951.4629090302697</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614628</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940985</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G28" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H28" t="n">
-        <v>125.4609311463251</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694739</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.915471247702</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D29" t="n">
-        <v>1133.649772640952</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E29" t="n">
-        <v>747.8615200427075</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>336.8756152531</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2286.875035802973</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1934.106380532859</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1934.106380532859</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1543.967048557047</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="C31" t="n">
-        <v>559.1928012785273</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="D31" t="n">
-        <v>409.0761618661916</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="E31" t="n">
-        <v>261.1630682837985</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="F31" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G31" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H31" t="n">
-        <v>103.4146957163286</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240419</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240419</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6715,37 +6715,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2674.905779777288</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1991.074237163603</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="33">
@@ -6755,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2636.156811774978</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C34" t="n">
-        <v>2636.156811774978</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D34" t="n">
-        <v>2486.040172362642</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E34" t="n">
-        <v>2486.040172362642</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F34" t="n">
-        <v>2486.040172362642</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G34" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R34" t="n">
-        <v>2636.156811774978</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S34" t="n">
-        <v>2636.156811774978</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T34" t="n">
-        <v>2636.156811774978</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U34" t="n">
-        <v>2636.156811774978</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V34" t="n">
-        <v>2636.156811774978</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>2636.156811774978</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>2636.156811774978</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y34" t="n">
-        <v>2636.156811774978</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785541</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889465</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224079</v>
@@ -6952,37 +6952,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M36" t="n">
         <v>1313.210296315296</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.6879402326643</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C37" t="n">
-        <v>156.7517573047574</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D37" t="n">
-        <v>156.7517573047574</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E37" t="n">
-        <v>156.7517573047574</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F37" t="n">
-        <v>156.7517573047574</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951866</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951866</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951866</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629041</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090472</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194397</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287637</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311825</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
@@ -7268,28 +7268,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T40" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.538203824042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.643464250441</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C41" t="n">
         <v>1268.68094731003</v>
@@ -7402,19 +7402,19 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224079</v>
@@ -7426,13 +7426,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7453,10 +7453,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287637</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.243304314563</v>
+        <v>1878.515311311825</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T43" t="n">
-        <v>2469.840903686824</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U43" t="n">
-        <v>2277.64757683804</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="44">
@@ -7651,10 +7651,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7733,19 +7733,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>318.4909684781773</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036446</v>
@@ -7842,16 +7842,16 @@
         <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>500.139433308417</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.2374134625282</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
-        <v>141.7661484128015</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>59.5493396620943</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>16.15514203988133</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>295.1073759098564</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>357.653659365814</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23080,16 +23080,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>230.8127086232325</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23314,19 +23314,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>226.132619755834</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>82.85718120047576</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853701</v>
@@ -23466,7 +23466,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>166.6866197654359</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>86.05160619575659</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23785,10 +23785,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>156.1788006500072</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>327.6535179575308</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>171.1985940132491</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>102.6727886100651</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>90.76584682581944</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>116.7201914384376</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>207.5382046601853</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>120.5528450982387</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>15.06161094767407</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.54933966209441</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>64.16285195963719</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>227.2835138901382</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392906</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>85.98862503533373</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,13 +24973,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>229.2032893797629</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R34" t="n">
-        <v>86.28283552934542</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>56.69292621882434</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789882</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>147.3834680907583</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727106</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>40.32635200869747</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>144.2707130727106</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168096</v>
+        <v>83.12091415361516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>40.37291726015448</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26082,10 +26082,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>96.92615468724699</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393944</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="F2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="G2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="I2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="J2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157575</v>
@@ -26346,13 +26346,13 @@
         <v>289152.6100157577</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157578</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157577</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157574</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26435,28 +26435,28 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597037</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,28 +26487,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384187.4557612562</v>
+        <v>-390255.8695070756</v>
       </c>
       <c r="C6" t="n">
-        <v>205780.4234532882</v>
+        <v>199712.0097074691</v>
       </c>
       <c r="D6" t="n">
-        <v>205780.4234532884</v>
+        <v>199712.0097074691</v>
       </c>
       <c r="E6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
       <c r="F6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074691</v>
       </c>
       <c r="G6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074691</v>
       </c>
       <c r="H6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
       <c r="I6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.609707469</v>
       </c>
       <c r="J6" t="n">
-        <v>62984.80426069524</v>
+        <v>56916.39051487607</v>
       </c>
       <c r="K6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074691</v>
       </c>
       <c r="L6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074694</v>
       </c>
       <c r="M6" t="n">
-        <v>239408.0234532884</v>
+        <v>233339.6097074694</v>
       </c>
       <c r="N6" t="n">
-        <v>239408.0234532885</v>
+        <v>233339.6097074694</v>
       </c>
       <c r="O6" t="n">
-        <v>239408.0234532883</v>
+        <v>233339.6097074692</v>
       </c>
       <c r="P6" t="n">
-        <v>239408.0234532883</v>
+        <v>233339.6097074692</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26807,28 +26807,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31220,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31849,13 +31849,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32314,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,43 +32706,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423956</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,43 +32943,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423954</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,25 +33119,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,43 +33180,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423954</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33426,34 +33426,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423922</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33590,28 +33590,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O39" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35257,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35497,13 +35497,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36530,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36767,10 +36767,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P33" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M34" t="n">
         <v>146.3614835535656</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O39" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
